--- a/Datasets+Emoji/Datasets_Politik_v2_CakNun.xlsx
+++ b/Datasets+Emoji/Datasets_Politik_v2_CakNun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 8\Skripsi\Project\Datasets+Emoji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3E2346-5416-4CDD-A6D7-96516E3CA3C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B42D96-6EC0-4565-8833-6F41975FF008}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Datasets+Emoji/Datasets_Politik_v2_CakNun.xlsx
+++ b/Datasets+Emoji/Datasets_Politik_v2_CakNun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 8\Skripsi\Project\Datasets+Emoji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B42D96-6EC0-4565-8833-6F41975FF008}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44926FBA-4ACB-4495-9F28-4E68D8A136A8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
